--- a/doc/Android开发.xlsx
+++ b/doc/Android开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="0" windowWidth="30440" windowHeight="19680" tabRatio="500"/>
+    <workbookView xWindow="-60" yWindow="60" windowWidth="30440" windowHeight="19680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Android开发" sheetId="1" r:id="rId1"/>
@@ -718,9 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
